--- a/static/download/2022/RP3_APT_ATC_PRE_2022_Jan_Feb.xlsx
+++ b/static/download/2022/RP3_APT_ATC_PRE_2022_Jan_Feb.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\04-release-20220413T145423Z-001\04-release\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="APT_ATC_PRE_APT" sheetId="1" r:id="rId1"/>
-    <sheet name="Change Log" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="APT_ATC_PRE_APT" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Change Log" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>Data source</t>
   </si>
@@ -88,7 +80,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -407,78 +399,75 @@
   </si>
   <si>
     <t>UK airports removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd-mm-yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -487,7 +476,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -509,13 +498,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -523,11 +506,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -542,386 +523,154 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="12.0"/>
+    <col customWidth="1" min="4" max="4" width="14.0"/>
+    <col customWidth="1" min="5" max="5" width="18.88"/>
+    <col customWidth="1" min="6" max="6" width="15.25"/>
+    <col customWidth="1" min="7" max="8" width="19.63"/>
+    <col customWidth="1" min="9" max="9" width="15.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -945,18 +694,18 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44664</v>
+        <v>44664.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>44620</v>
+        <v>44620.0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -968,7 +717,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -978,11 +727,8 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="L3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -997,7 +743,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
@@ -1037,27 +783,27 @@
         <v>21</v>
       </c>
       <c r="D6" s="20">
-        <v>10070</v>
+        <v>10070.0</v>
       </c>
       <c r="E6" s="20">
-        <v>4174</v>
+        <v>4174.0</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" ref="F6:F9" si="0">E6/D6</f>
-        <v>0.41449851042701091</v>
+        <f t="shared" ref="F6:F9" si="1">E6/D6</f>
+        <v>0.4144985104</v>
       </c>
       <c r="G6" s="20">
-        <v>10070</v>
+        <v>10070.0</v>
       </c>
       <c r="H6" s="20">
-        <v>133539</v>
+        <v>133539.0</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6:I17" si="1">H6/G6</f>
-        <v>13.261072492552135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I6:I17" si="2">H6/G6</f>
+        <v>13.26107249</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
@@ -1068,27 +814,27 @@
         <v>24</v>
       </c>
       <c r="D7" s="20">
-        <v>9545</v>
+        <v>9545.0</v>
       </c>
       <c r="E7" s="20">
-        <v>1517</v>
+        <v>1517.0</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>0.15893137768465165</v>
+        <f t="shared" si="1"/>
+        <v>0.1589313777</v>
       </c>
       <c r="G7" s="20">
-        <v>9545</v>
+        <v>9545.0</v>
       </c>
       <c r="H7" s="20">
         <v>102563.16</v>
       </c>
       <c r="I7" s="21">
-        <f t="shared" si="1"/>
-        <v>10.745223677317968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>10.74522368</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
@@ -1099,27 +845,27 @@
         <v>24</v>
       </c>
       <c r="D8" s="20">
-        <v>11161</v>
+        <v>11161.0</v>
       </c>
       <c r="E8" s="20">
-        <v>1563</v>
+        <v>1563.0</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>0.14004121494489741</v>
+        <f t="shared" si="1"/>
+        <v>0.1400412149</v>
       </c>
       <c r="G8" s="20">
-        <v>23497</v>
+        <v>23497.0</v>
       </c>
       <c r="H8" s="20">
         <v>413524.32</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" si="1"/>
-        <v>17.599026258671319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>17.59902626</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1130,27 +876,27 @@
         <v>24</v>
       </c>
       <c r="D9" s="20">
-        <v>2592</v>
+        <v>2592.0</v>
       </c>
       <c r="E9" s="20">
-        <v>803</v>
+        <v>803.0</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.3097993827160494</v>
+        <f t="shared" si="1"/>
+        <v>0.3097993827</v>
       </c>
       <c r="G9" s="20">
-        <v>5338</v>
+        <v>5338.0</v>
       </c>
       <c r="H9" s="20">
         <v>49014.05</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" si="1"/>
-        <v>9.182100037467217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9.182100037</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
@@ -1164,17 +910,17 @@
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="20">
-        <v>6883</v>
+        <v>6883.0</v>
       </c>
       <c r="H10" s="20">
         <v>120656.38</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="1"/>
-        <v>17.529620804881592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>17.5296208</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
@@ -1185,27 +931,27 @@
         <v>24</v>
       </c>
       <c r="D11" s="20">
-        <v>6733</v>
+        <v>6733.0</v>
       </c>
       <c r="E11" s="20">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" ref="F11:F14" si="2">E11/D11</f>
-        <v>1.9010842120897074E-2</v>
+        <f t="shared" ref="F11:F14" si="3">E11/D11</f>
+        <v>0.01901084212</v>
       </c>
       <c r="G11" s="20">
-        <v>6733</v>
+        <v>6733.0</v>
       </c>
       <c r="H11" s="20">
         <v>74739.66</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="1"/>
-        <v>11.100499034605674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>11.10049903</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
@@ -1216,27 +962,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="20">
-        <v>15617</v>
+        <v>15617.0</v>
       </c>
       <c r="E12" s="20">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="F12" s="21">
+        <f t="shared" si="3"/>
+        <v>0.009668950503</v>
+      </c>
+      <c r="G12" s="20">
+        <v>15617.0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>108170.0</v>
+      </c>
+      <c r="I12" s="21">
         <f t="shared" si="2"/>
-        <v>9.668950502657361E-3</v>
-      </c>
-      <c r="G12" s="20">
-        <v>15617</v>
-      </c>
-      <c r="H12" s="20">
-        <v>108170</v>
-      </c>
-      <c r="I12" s="21">
-        <f t="shared" si="1"/>
-        <v>6.926426330281104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.92642633</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1247,27 +993,27 @@
         <v>24</v>
       </c>
       <c r="D13" s="20">
-        <v>3697</v>
+        <v>3697.0</v>
       </c>
       <c r="E13" s="20">
-        <v>256</v>
+        <v>256.0</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="2"/>
-        <v>6.9245334054638896E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.06924533405</v>
       </c>
       <c r="G13" s="20">
-        <v>3697</v>
+        <v>3697.0</v>
       </c>
       <c r="H13" s="20">
         <v>29396.79</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="1"/>
-        <v>7.9515255612658917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>7.951525561</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1278,27 +1024,27 @@
         <v>39</v>
       </c>
       <c r="D14" s="20">
-        <v>8984</v>
+        <v>8984.0</v>
       </c>
       <c r="E14" s="20">
-        <v>6799</v>
+        <v>6799.0</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="2"/>
-        <v>0.7567898486197685</v>
+        <f t="shared" si="3"/>
+        <v>0.7567898486</v>
       </c>
       <c r="G14" s="20">
-        <v>8984</v>
+        <v>8984.0</v>
       </c>
       <c r="H14" s="20">
         <v>151571.9</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="1"/>
-        <v>16.87131567230632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>16.87131567</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>40</v>
       </c>
@@ -1312,17 +1058,17 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="20">
-        <v>26079</v>
+        <v>26079.0</v>
       </c>
       <c r="H15" s="20">
         <v>587162.21</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="1"/>
-        <v>22.514751715940026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>22.51475172</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>43</v>
       </c>
@@ -1333,27 +1079,27 @@
         <v>45</v>
       </c>
       <c r="D16" s="20">
-        <v>11147</v>
+        <v>11147.0</v>
       </c>
       <c r="E16" s="20">
-        <v>2298</v>
+        <v>2298.0</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" ref="F16:F17" si="3">E16/D16</f>
-        <v>0.20615412218534135</v>
+        <f t="shared" ref="F16:F17" si="4">E16/D16</f>
+        <v>0.2061541222</v>
       </c>
       <c r="G16" s="20">
-        <v>11147</v>
+        <v>11147.0</v>
       </c>
       <c r="H16" s="20">
-        <v>93644</v>
+        <v>93644.0</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="1"/>
-        <v>8.4008253341706283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8.400825334</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -1364,27 +1110,27 @@
         <v>48</v>
       </c>
       <c r="D17" s="20">
-        <v>11405</v>
+        <v>11405.0</v>
       </c>
       <c r="E17" s="20">
-        <v>446</v>
+        <v>446.0</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="3"/>
-        <v>3.9105655414291979E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.03910565541</v>
       </c>
       <c r="G17" s="20">
-        <v>11405</v>
+        <v>11405.0</v>
       </c>
       <c r="H17" s="20">
         <v>128759.23</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="1"/>
-        <v>11.28971766768961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>11.28971767</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +1147,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>52</v>
       </c>
@@ -1412,27 +1158,27 @@
         <v>51</v>
       </c>
       <c r="D19" s="20">
-        <v>11190</v>
+        <v>11190.0</v>
       </c>
       <c r="E19" s="20">
-        <v>1207</v>
+        <v>1207.0</v>
       </c>
       <c r="F19" s="21">
         <f>E19/D19</f>
-        <v>0.10786416443252904</v>
+        <v>0.1078641644</v>
       </c>
       <c r="G19" s="20">
-        <v>11190</v>
+        <v>11190.0</v>
       </c>
       <c r="H19" s="20">
-        <v>127405</v>
+        <v>127405.0</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" ref="I19:I47" si="4">H19/G19</f>
-        <v>11.385612153708669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I19:I47" si="5">H19/G19</f>
+        <v>11.38561215</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>54</v>
       </c>
@@ -1443,27 +1189,27 @@
         <v>56</v>
       </c>
       <c r="D20" s="20">
-        <v>4721</v>
+        <v>4721.0</v>
       </c>
       <c r="E20" s="20">
-        <v>3687</v>
+        <v>3687.0</v>
       </c>
       <c r="F20" s="21">
         <f>E19/D20</f>
-        <v>0.25566617242109724</v>
+        <v>0.2556661724</v>
       </c>
       <c r="G20" s="20">
-        <v>8477</v>
+        <v>8477.0</v>
       </c>
       <c r="H20" s="20">
         <v>95674.09</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="4"/>
-        <v>11.28631473398608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>11.28631473</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>57</v>
       </c>
@@ -1474,27 +1220,27 @@
         <v>59</v>
       </c>
       <c r="D21" s="20">
-        <v>9378</v>
+        <v>9378.0</v>
       </c>
       <c r="E21" s="20">
-        <v>1094</v>
+        <v>1094.0</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" ref="F21:F23" si="5">E21/D21</f>
-        <v>0.11665600341224142</v>
+        <f t="shared" ref="F21:F23" si="6">E21/D21</f>
+        <v>0.1166560034</v>
       </c>
       <c r="G21" s="20">
-        <v>9378</v>
+        <v>9378.0</v>
       </c>
       <c r="H21" s="20">
         <v>131793.18</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="4"/>
-        <v>14.053442098528469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>14.0534421</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>60</v>
       </c>
@@ -1505,27 +1251,27 @@
         <v>62</v>
       </c>
       <c r="D22" s="20">
-        <v>4188</v>
+        <v>4188.0</v>
       </c>
       <c r="E22" s="20">
-        <v>1980</v>
+        <v>1980.0</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="5"/>
-        <v>0.47277936962750716</v>
+        <f t="shared" si="6"/>
+        <v>0.4727793696</v>
       </c>
       <c r="G22" s="20">
-        <v>8799</v>
+        <v>8799.0</v>
       </c>
       <c r="H22" s="20">
         <v>92914.26</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="4"/>
-        <v>10.559638595294919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>10.5596386</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>63</v>
       </c>
@@ -1536,27 +1282,27 @@
         <v>62</v>
       </c>
       <c r="D23" s="20">
-        <v>4240</v>
+        <v>4240.0</v>
       </c>
       <c r="E23" s="20">
-        <v>1285</v>
+        <v>1285.0</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="5"/>
-        <v>0.30306603773584906</v>
+        <f t="shared" si="6"/>
+        <v>0.3030660377</v>
       </c>
       <c r="G23" s="20">
-        <v>4240</v>
+        <v>4240.0</v>
       </c>
       <c r="H23" s="20">
         <v>41605.64</v>
       </c>
       <c r="I23" s="21">
-        <f t="shared" si="4"/>
-        <v>9.8126509433962266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>9.812650943</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>65</v>
       </c>
@@ -1570,17 +1316,17 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="20">
-        <v>15207</v>
+        <v>15207.0</v>
       </c>
       <c r="H24" s="20">
         <v>110947.95</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="4"/>
-        <v>7.2958473071611758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>7.295847307</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>67</v>
       </c>
@@ -1594,17 +1340,17 @@
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
       <c r="G25" s="20">
-        <v>22388</v>
+        <v>22388.0</v>
       </c>
       <c r="H25" s="20">
         <v>166172.69</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="4"/>
-        <v>7.4223999463998576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>7.422399946</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>69</v>
       </c>
@@ -1615,27 +1361,27 @@
         <v>62</v>
       </c>
       <c r="D26" s="20">
-        <v>3612</v>
+        <v>3612.0</v>
       </c>
       <c r="E26" s="20">
-        <v>1502</v>
+        <v>1502.0</v>
       </c>
       <c r="F26" s="21">
         <f>E26/D26</f>
-        <v>0.4158361018826135</v>
+        <v>0.4158361019</v>
       </c>
       <c r="G26" s="20">
-        <v>7186</v>
+        <v>7186.0</v>
       </c>
       <c r="H26" s="20">
         <v>81273.41</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="4"/>
-        <v>11.309965210130811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>11.30996521</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>71</v>
       </c>
@@ -1649,17 +1395,17 @@
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
       <c r="G27" s="20">
-        <v>6796</v>
+        <v>6796.0</v>
       </c>
       <c r="H27" s="20">
         <v>36353.72</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="4"/>
-        <v>5.3492819305473809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>5.349281931</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>73</v>
       </c>
@@ -1670,27 +1416,27 @@
         <v>75</v>
       </c>
       <c r="D28" s="20">
-        <v>3946</v>
+        <v>3946.0</v>
       </c>
       <c r="E28" s="20">
-        <v>917</v>
+        <v>917.0</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" ref="F28:F29" si="6">E28/D28</f>
-        <v>0.23238722757222505</v>
+        <f t="shared" ref="F28:F29" si="7">E28/D28</f>
+        <v>0.2323872276</v>
       </c>
       <c r="G28" s="20">
-        <v>3946</v>
+        <v>3946.0</v>
       </c>
       <c r="H28" s="20">
-        <v>25269</v>
+        <v>25269.0</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="4"/>
-        <v>6.4036999493157625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>6.403699949</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>76</v>
       </c>
@@ -1701,27 +1447,27 @@
         <v>75</v>
       </c>
       <c r="D29" s="20">
-        <v>4737</v>
+        <v>4737.0</v>
       </c>
       <c r="E29" s="20">
-        <v>1103</v>
+        <v>1103.0</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="6"/>
-        <v>0.23284779396242347</v>
+        <f t="shared" si="7"/>
+        <v>0.232847794</v>
       </c>
       <c r="G29" s="20">
-        <v>4737</v>
+        <v>4737.0</v>
       </c>
       <c r="H29" s="20">
-        <v>69618</v>
+        <v>69618.0</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="4"/>
-        <v>14.696643445218493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>14.69664345</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>78</v>
       </c>
@@ -1735,17 +1481,17 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="20">
-        <v>4870</v>
+        <v>4870.0</v>
       </c>
       <c r="H30" s="20">
-        <v>46226</v>
+        <v>46226.0</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="4"/>
-        <v>9.4919917864476382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>9.491991786</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>80</v>
       </c>
@@ -1756,27 +1502,27 @@
         <v>75</v>
       </c>
       <c r="D31" s="20">
-        <v>6677</v>
+        <v>6677.0</v>
       </c>
       <c r="E31" s="20">
-        <v>1635</v>
+        <v>1635.0</v>
       </c>
       <c r="F31" s="21">
         <f>E31/D31</f>
-        <v>0.24487045080125805</v>
+        <v>0.2448704508</v>
       </c>
       <c r="G31" s="20">
-        <v>6677</v>
+        <v>6677.0</v>
       </c>
       <c r="H31" s="20">
-        <v>51292</v>
+        <v>51292.0</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="4"/>
-        <v>7.6818930657480902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>7.681893066</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>82</v>
       </c>
@@ -1790,17 +1536,17 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="20">
-        <v>24575</v>
+        <v>24575.0</v>
       </c>
       <c r="H32" s="20">
-        <v>337723</v>
+        <v>337723.0</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="4"/>
-        <v>13.742543234994914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>13.74254323</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="18" t="s">
         <v>84</v>
       </c>
@@ -1811,27 +1557,27 @@
         <v>75</v>
       </c>
       <c r="D33" s="20">
-        <v>11554</v>
+        <v>11554.0</v>
       </c>
       <c r="E33" s="20">
-        <v>6652</v>
+        <v>6652.0</v>
       </c>
       <c r="F33" s="21">
         <f>E33/D33</f>
-        <v>0.57573134845075302</v>
+        <v>0.5757313485</v>
       </c>
       <c r="G33" s="20">
-        <v>11554</v>
+        <v>11554.0</v>
       </c>
       <c r="H33" s="20">
-        <v>126935</v>
+        <v>126935.0</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="4"/>
-        <v>10.986238532110091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>10.98623853</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
@@ -1845,17 +1591,17 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="20">
-        <v>5431</v>
+        <v>5431.0</v>
       </c>
       <c r="H34" s="20">
-        <v>47925</v>
+        <v>47925.0</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="4"/>
-        <v>8.8243417418523293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>8.824341742</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
         <v>89</v>
       </c>
@@ -1866,27 +1612,27 @@
         <v>91</v>
       </c>
       <c r="D35" s="20">
-        <v>5852</v>
+        <v>5852.0</v>
       </c>
       <c r="E35" s="20">
-        <v>675</v>
+        <v>675.0</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" ref="F35:F37" si="7">E35/D35</f>
-        <v>0.11534518113465482</v>
+        <f t="shared" ref="F35:F37" si="8">E35/D35</f>
+        <v>0.1153451811</v>
       </c>
       <c r="G35" s="20">
-        <v>5852</v>
+        <v>5852.0</v>
       </c>
       <c r="H35" s="20">
-        <v>70256.649999999994</v>
+        <v>70256.65</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="4"/>
-        <v>12.005579289131919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>12.00557929</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="18" t="s">
         <v>92</v>
       </c>
@@ -1897,27 +1643,27 @@
         <v>94</v>
       </c>
       <c r="D36" s="20">
-        <v>11163</v>
+        <v>11163.0</v>
       </c>
       <c r="E36" s="20">
-        <v>8180</v>
+        <v>8180.0</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="7"/>
-        <v>0.73277792708053391</v>
+        <f t="shared" si="8"/>
+        <v>0.7327779271</v>
       </c>
       <c r="G36" s="20">
-        <v>11163</v>
+        <v>11163.0</v>
       </c>
       <c r="H36" s="20">
-        <v>199738.23999999999</v>
+        <v>199738.24</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="4"/>
-        <v>17.8928818417988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>17.89288184</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="18" t="s">
         <v>95</v>
       </c>
@@ -1928,27 +1674,27 @@
         <v>94</v>
       </c>
       <c r="D37" s="20">
-        <v>5512</v>
+        <v>5512.0</v>
       </c>
       <c r="E37" s="20">
-        <v>3615</v>
+        <v>3615.0</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="7"/>
-        <v>0.65584179970972423</v>
+        <f t="shared" si="8"/>
+        <v>0.6558417997</v>
       </c>
       <c r="G37" s="20">
-        <v>5512</v>
+        <v>5512.0</v>
       </c>
       <c r="H37" s="20">
-        <v>51931</v>
+        <v>51931.0</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="4"/>
-        <v>9.4214441219158207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>9.421444122</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>97</v>
       </c>
@@ -1962,17 +1708,17 @@
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="20">
-        <v>6111</v>
+        <v>6111.0</v>
       </c>
       <c r="H38" s="20">
         <v>30147.75</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="4"/>
-        <v>4.9333578792341681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>4.933357879</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>99</v>
       </c>
@@ -1983,27 +1729,27 @@
         <v>94</v>
       </c>
       <c r="D39" s="20">
-        <v>3381</v>
+        <v>3381.0</v>
       </c>
       <c r="E39" s="20">
-        <v>2238</v>
+        <v>2238.0</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" ref="F39:F40" si="8">E39/D39</f>
-        <v>0.66193433895297249</v>
+        <f t="shared" ref="F39:F40" si="9">E39/D39</f>
+        <v>0.661934339</v>
       </c>
       <c r="G39" s="20">
-        <v>3381</v>
+        <v>3381.0</v>
       </c>
       <c r="H39" s="20">
-        <v>36326</v>
+        <v>36326.0</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="4"/>
-        <v>10.744158532978409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>10.74415853</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>101</v>
       </c>
@@ -2014,27 +1760,27 @@
         <v>94</v>
       </c>
       <c r="D40" s="20">
-        <v>10822</v>
+        <v>10822.0</v>
       </c>
       <c r="E40" s="20">
-        <v>9185</v>
+        <v>9185.0</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="8"/>
-        <v>0.84873406024764364</v>
+        <f t="shared" si="9"/>
+        <v>0.8487340602</v>
       </c>
       <c r="G40" s="20">
-        <v>10822</v>
+        <v>10822.0</v>
       </c>
       <c r="H40" s="20">
-        <v>63120</v>
+        <v>63120.0</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="4"/>
-        <v>5.832563296987618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>5.832563297</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>103</v>
       </c>
@@ -2048,17 +1794,17 @@
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="20">
-        <v>5019</v>
+        <v>5019.0</v>
       </c>
       <c r="H41" s="20">
-        <v>42899</v>
+        <v>42899.0</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="4"/>
-        <v>8.5473201833034462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>8.547320183</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>106</v>
       </c>
@@ -2069,27 +1815,27 @@
         <v>108</v>
       </c>
       <c r="D42" s="20">
-        <v>10334</v>
+        <v>10334.0</v>
       </c>
       <c r="E42" s="20">
-        <v>5303</v>
+        <v>5303.0</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" ref="F42:F44" si="9">E42/D42</f>
-        <v>0.51316044126185412</v>
+        <f t="shared" ref="F42:F44" si="10">E42/D42</f>
+        <v>0.5131604413</v>
       </c>
       <c r="G42" s="20">
-        <v>10334</v>
+        <v>10334.0</v>
       </c>
       <c r="H42" s="20">
-        <v>87259</v>
+        <v>87259.0</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="4"/>
-        <v>8.443874588736211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>8.443874589</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>109</v>
       </c>
@@ -2100,27 +1846,27 @@
         <v>111</v>
       </c>
       <c r="D43" s="20">
-        <v>5019</v>
+        <v>5019.0</v>
       </c>
       <c r="E43" s="20">
-        <v>1024</v>
+        <v>1024.0</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="9"/>
-        <v>0.20402470611675633</v>
+        <f t="shared" si="10"/>
+        <v>0.2040247061</v>
       </c>
       <c r="G43" s="20">
-        <v>5019</v>
+        <v>5019.0</v>
       </c>
       <c r="H43" s="20">
         <v>39719.51</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="4"/>
-        <v>7.9138294480972311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>7.913829448</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>112</v>
       </c>
@@ -2131,27 +1877,27 @@
         <v>111</v>
       </c>
       <c r="D44" s="20">
-        <v>12208</v>
+        <v>12208.0</v>
       </c>
       <c r="E44" s="20">
-        <v>17703</v>
+        <v>17703.0</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="9"/>
-        <v>1.4501146788990826</v>
+        <f t="shared" si="10"/>
+        <v>1.450114679</v>
       </c>
       <c r="G44" s="20">
-        <v>12208</v>
+        <v>12208.0</v>
       </c>
       <c r="H44" s="20">
         <v>116205.18</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="4"/>
-        <v>9.5187729357798165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>9.518772936</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>114</v>
       </c>
@@ -2165,17 +1911,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
       <c r="G45" s="20">
-        <v>5774</v>
+        <v>5774.0</v>
       </c>
       <c r="H45" s="20">
-        <v>66047</v>
+        <v>66047.0</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="4"/>
-        <v>11.438690682369241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>11.43869068</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="18" t="s">
         <v>117</v>
       </c>
@@ -2186,27 +1932,27 @@
         <v>119</v>
       </c>
       <c r="D46" s="20">
-        <v>11031</v>
+        <v>11031.0</v>
       </c>
       <c r="E46" s="20">
-        <v>3222</v>
+        <v>3222.0</v>
       </c>
       <c r="F46" s="21">
-        <f t="shared" ref="F46:F47" si="10">E46/D46</f>
-        <v>0.29208593962469404</v>
+        <f t="shared" ref="F46:F47" si="11">E46/D46</f>
+        <v>0.2920859396</v>
       </c>
       <c r="G46" s="20">
-        <v>11031</v>
+        <v>11031.0</v>
       </c>
       <c r="H46" s="20">
         <v>131485.09</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="4"/>
-        <v>11.919598404496419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>11.9195984</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>120</v>
       </c>
@@ -2217,49 +1963,48 @@
         <v>119</v>
       </c>
       <c r="D47" s="20">
-        <v>11683</v>
+        <v>11683.0</v>
       </c>
       <c r="E47" s="20">
-        <v>4017</v>
+        <v>4017.0</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="10"/>
-        <v>0.34383291962680818</v>
+        <f t="shared" si="11"/>
+        <v>0.3438329196</v>
       </c>
       <c r="G47" s="20">
-        <v>11683</v>
+        <v>11683.0</v>
       </c>
       <c r="H47" s="20">
         <v>112026.2</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="4"/>
-        <v>9.5888213643755886</v>
+        <f t="shared" si="5"/>
+        <v>9.588821364</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="104.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="11.0"/>
+    <col customWidth="1" min="2" max="2" width="4.38"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="104.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>122</v>
       </c>
@@ -2273,23 +2018,23 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="25">
-        <v>44337</v>
+        <v>44337.0</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C2" s="27">
-        <v>2021</v>
+        <v>2021.0</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="28">
-        <v>44351</v>
+        <v>44351.0</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2297,19 +2042,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
       <c r="D5" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>